--- a/testData/conf_audit_report.xlsx
+++ b/testData/conf_audit_report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="add_conf_report" sheetId="2" r:id="rId1"/>
@@ -194,10 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cs用户组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>授权</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,6 +216,10 @@
   </si>
   <si>
     <t>报表名称2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置报表用户组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -673,8 +673,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -732,10 +732,10 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="6" t="s">
@@ -759,10 +759,10 @@
         <v>42</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="6" t="s">
@@ -782,10 +782,10 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="6" t="s">
@@ -882,7 +882,7 @@
   <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -988,7 +988,7 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1026,11 +1026,11 @@
         <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1216,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1235,7 +1235,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>0</v>
@@ -1249,7 +1249,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>38</v>
